--- a/Results/PyFCS/results_opt_1.xlsx
+++ b/Results/PyFCS/results_opt_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\PYFCS\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a_PROGRAMAR\Tooth_Color_Validation\Results\PyFCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84D481-DBA0-4E78-A8A7-A1CC3CBAFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B23BF-D7DF-496B-9D62-2E1E50D2A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43305" yWindow="225" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>[('C3', 0.43), ('C4', 0.335), ('D4', 0.18)]</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -242,6 +242,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -588,254 +589,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Results/PyFCS/results_opt_1.xlsx
+++ b/Results/PyFCS/results_opt_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\a_PROGRAMAR\Tooth_Color_Validation\Results\PyFCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\PYFCS\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B23BF-D7DF-496B-9D62-2E1E50D2A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D08ADE-F62C-4F39-9B25-99326F395B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
+    <t>Imagen</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
@@ -37,10 +40,10 @@
     <t>[('A1', 0.417), ('D2', 0.334), ('C1', 0.15)]</t>
   </si>
   <si>
-    <t>[('A1', 1.0), ('B1', 0.0), ('D2', 0.0)]</t>
-  </si>
-  <si>
-    <t>[('D2', 0.475), ('A1', 0.306), ('C4', 0.096)]</t>
+    <t>[('A1', 1.0)]</t>
+  </si>
+  <si>
+    <t>[('D2', 0.475), ('A1', 0.306)]</t>
   </si>
   <si>
     <t>A2.png</t>
@@ -49,7 +52,7 @@
     <t>[('C3', 0.219), ('C4', 0.205), ('A3', 0.179)]</t>
   </si>
   <si>
-    <t>[('A2', 0.666), ('B2', 0.319), ('A3', 0.008)]</t>
+    <t>[('A2', 0.666), ('B2', 0.319)]</t>
   </si>
   <si>
     <t>[('B2', 0.4), ('D3', 0.296), ('C4', 0.148)]</t>
@@ -61,7 +64,7 @@
     <t>[('D4', 0.331), ('C3', 0.285), ('C4', 0.229)]</t>
   </si>
   <si>
-    <t>[('A3', 0.83), ('B2', 0.103), ('D4', 0.049)]</t>
+    <t>[('A3', 0.83), ('B2', 0.103)]</t>
   </si>
   <si>
     <t>[('D4', 0.282), ('C2', 0.282), ('C4', 0.227)]</t>
@@ -70,13 +73,13 @@
     <t>A3_5.png</t>
   </si>
   <si>
-    <t>[('B4', 0.435), ('C4', 0.365), ('A4', 0.097)]</t>
-  </si>
-  <si>
-    <t>[('A3.5', 0.421), ('B3', 0.322), ('B4', 0.245)]</t>
-  </si>
-  <si>
-    <t>[('C4', 0.338), ('A3.5', 0.272), ('B4', 0.193)]</t>
+    <t>[('B4', 0.435), ('C4', 0.365)]</t>
+  </si>
+  <si>
+    <t>[('A3_5', 0.421), ('B3', 0.322), ('B4', 0.245)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.338), ('A3_5', 0.272), ('B4', 0.193)]</t>
   </si>
   <si>
     <t>A4.png</t>
@@ -85,22 +88,22 @@
     <t>[('C4', 0.546), ('A4', 0.279), ('B4', 0.101)]</t>
   </si>
   <si>
-    <t>[('A4', 0.711), ('C3', 0.225), ('A3.5', 0.062)]</t>
-  </si>
-  <si>
-    <t>[('C4', 0.718), ('A4', 0.254), ('C3', 0.018)]</t>
+    <t>[('A4', 0.711), ('C3', 0.225)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.718), ('A4', 0.254)]</t>
   </si>
   <si>
     <t>B1.png</t>
   </si>
   <si>
-    <t>[('D2', 0.54), ('B1', 0.301), ('A1', 0.07)]</t>
-  </si>
-  <si>
-    <t>[('B1', 0.992), ('A1', 0.007), ('D2', 0.0)]</t>
-  </si>
-  <si>
-    <t>[('B1', 0.504), ('D2', 0.413), ('C4', 0.066)]</t>
+    <t>[('D2', 0.54), ('B1', 0.301)]</t>
+  </si>
+  <si>
+    <t>[('B1', 0.992)]</t>
+  </si>
+  <si>
+    <t>[('B1', 0.504), ('D2', 0.413)]</t>
   </si>
   <si>
     <t>B2.png</t>
@@ -109,7 +112,7 @@
     <t>[('C2', 0.361), ('B2', 0.255), ('D3', 0.166)]</t>
   </si>
   <si>
-    <t>[('B2', 0.934), ('C1', 0.057), ('A2', 0.006)]</t>
+    <t>[('B2', 0.934)]</t>
   </si>
   <si>
     <t>[('C1', 0.291), ('D3', 0.286), ('C4', 0.218)]</t>
@@ -121,7 +124,7 @@
     <t>[('B4', 0.378), ('C4', 0.238), ('B3', 0.167)]</t>
   </si>
   <si>
-    <t>[('B3', 0.982), ('B4', 0.016), ('A3', 0.001)]</t>
+    <t>[('B3', 0.982)]</t>
   </si>
   <si>
     <t>[('C4', 0.276), ('B3', 0.231), ('C3', 0.199)]</t>
@@ -130,13 +133,13 @@
     <t>B4.png</t>
   </si>
   <si>
-    <t>[('B4', 0.643), ('C4', 0.254), ('A4', 0.043)]</t>
-  </si>
-  <si>
-    <t>[('B4', 0.964), ('B3', 0.035), ('A3.5', 0.001)]</t>
-  </si>
-  <si>
-    <t>[('B4', 0.513), ('C4', 0.32), ('C3', 0.098)]</t>
+    <t>[('B4', 0.643), ('C4', 0.254)]</t>
+  </si>
+  <si>
+    <t>[('B4', 0.964)]</t>
+  </si>
+  <si>
+    <t>[('B4', 0.513), ('C4', 0.32)]</t>
   </si>
   <si>
     <t>C1.png</t>
@@ -145,7 +148,7 @@
     <t>[('D3', 0.429), ('C1', 0.3), ('C4', 0.215)]</t>
   </si>
   <si>
-    <t>[('C1', 0.967), ('D2', 0.017), ('B2', 0.014)]</t>
+    <t>[('C1', 0.967)]</t>
   </si>
   <si>
     <t>[('D3', 0.304), ('C1', 0.268), ('D2', 0.225)]</t>
@@ -157,7 +160,7 @@
     <t>[('C4', 0.395), ('C3', 0.324), ('C2', 0.19)]</t>
   </si>
   <si>
-    <t>[('C2', 0.954), ('D4', 0.038), ('B2', 0.007)]</t>
+    <t>[('C2', 0.954)]</t>
   </si>
   <si>
     <t>[('C2', 0.501), ('C4', 0.308), ('C3', 0.135)]</t>
@@ -166,22 +169,22 @@
     <t>C3.png</t>
   </si>
   <si>
-    <t>[('C4', 0.537), ('C3', 0.353), ('D4', 0.039)]</t>
-  </si>
-  <si>
-    <t>[('C3', 0.587), ('D4', 0.377), ('C2', 0.035)]</t>
-  </si>
-  <si>
-    <t>[('C3', 0.53), ('C4', 0.453), ('D4', 0.005)]</t>
+    <t>[('C4', 0.537), ('C3', 0.353)]</t>
+  </si>
+  <si>
+    <t>[('C3', 0.587), ('D4', 0.377)]</t>
+  </si>
+  <si>
+    <t>[('C3', 0.53), ('C4', 0.453)]</t>
   </si>
   <si>
     <t>C4.png</t>
   </si>
   <si>
-    <t>[('C4', 0.906), ('A4', 0.083), ('B4', 0.002)]</t>
-  </si>
-  <si>
-    <t>[('C4', 0.957), ('A4', 0.041), ('C3', 0.002)]</t>
+    <t>[('C4', 0.906)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.957)]</t>
   </si>
   <si>
     <t>[('C4', 0.989)]</t>
@@ -193,7 +196,7 @@
     <t>[('C4', 0.319), ('D3', 0.251), ('C3', 0.166)]</t>
   </si>
   <si>
-    <t>[('D2', 0.719), ('C1', 0.279), ('D3', 0.001)]</t>
+    <t>[('D2', 0.719), ('C1', 0.279)]</t>
   </si>
   <si>
     <t>[('D2', 0.44), ('D3', 0.289), ('C4', 0.249)]</t>
@@ -205,7 +208,7 @@
     <t>[('D3', 0.327), ('C4', 0.323), ('C3', 0.207)]</t>
   </si>
   <si>
-    <t>[('D3', 0.606), ('C2', 0.297), ('C1', 0.077)]</t>
+    <t>[('D3', 0.606), ('C2', 0.297)]</t>
   </si>
   <si>
     <t>[('D3', 0.408), ('C4', 0.336), ('C2', 0.214)]</t>
@@ -217,13 +220,10 @@
     <t>[('C3', 0.365), ('C4', 0.256), ('D4', 0.19)]</t>
   </si>
   <si>
-    <t>[('D4', 0.903), ('C2', 0.055), ('B3', 0.021)]</t>
+    <t>[('D4', 0.903)]</t>
   </si>
   <si>
     <t>[('C3', 0.43), ('C4', 0.335), ('D4', 0.18)]</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,252 +588,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="4" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
